--- a/biology/Histoire de la zoologie et de la botanique/Jordi_Sabater_Pi/Jordi_Sabater_Pi.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jordi_Sabater_Pi/Jordi_Sabater_Pi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jordi Sabater Pi (né le 2 août 1922 à Barcelone et mort le 5 août 2009 dans la même ville) est un primatologue espagnol, originaire de Catalogne et un spécialiste renommé en éthologie, la science étudiant les comportements animaux. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a découvert de nombreux nouveaux comportements chez différentes espèces, et notamment l'utilisation d'outils par des chimpanzés.
 En 1966, il découvre en Guinée équatoriale l'unique gorille albinos jamais connu, Flocon de Neige, qui deviendra la mascotte du Jardin zoologique de Barcelone et de la ville.
